--- a/biology/Zoologie/Heterobathmioidea/Heterobathmioidea.xlsx
+++ b/biology/Zoologie/Heterobathmioidea/Heterobathmioidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterobathmia est un genre de petits lépidoptères primitifs originaires d'Amérique du Sud tempérée. 
-Il est le seul genre de la famille des Heterobathmiidae, de la super-famille des Heterobathmioidea et du sous-ordre des Heterobathmiina[1].
+Il est le seul genre de la famille des Heterobathmiidae, de la super-famille des Heterobathmioidea et du sous-ordre des Heterobathmiina.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Heterobathmia diffusa Kristensen &amp; Nielsen, 1979
 Heterobathmia megadecella Hünefeld &amp; Kristensen, 2012
@@ -546,7 +560,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Heterobathmia constituent l'un des groupes de papillons les plus primitifs, dépourvus de véritables trompes. Les adultes se nourrissent de pollen de Nothofagus, tandis que les chenilles en minent les feuilles.
 </t>
